--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_neuro-psychiatrique/Centre_hospitalier_neuro-psychiatrique.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_neuro-psychiatrique/Centre_hospitalier_neuro-psychiatrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier neuro-psychiatrique (abrégé en CHNP) est situé à Ettelbruck. C'est le plus grand hôpital psychiatrique du Luxembourg.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en 1855 en tant qu'Hospice central, cette structure asilaire enferme et isole à ses débuts diverses formes de marginalités avant d'être transformée en 1901 en hôpital exclusivement psychiatrique (Maison de santé). En 1931, le premier service ouvert est créé.
-En 2005, l'institution est transformé en trois unités : clinique de réhabilitation psychiatrique, centre d'accompagnement pour personnes âgées, centre d'accompagnement de personnes avec un handicap mental[1].
+En 2005, l'institution est transformé en trois unités : clinique de réhabilitation psychiatrique, centre d'accompagnement pour personnes âgées, centre d'accompagnement de personnes avec un handicap mental.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2019, le docteur Mark Ritzen est nommé directeur général du centre hospitalier[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2019, le docteur Mark Ritzen est nommé directeur général du centre hospitalier.
 </t>
         </is>
       </c>
